--- a/Hardware/BillofMaterials.xlsx
+++ b/Hardware/BillofMaterials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
   <si>
     <t>Category</t>
   </si>
@@ -448,6 +448,39 @@
   </si>
   <si>
     <t>90591A260</t>
+  </si>
+  <si>
+    <t>Cable carrier</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Surely an over-estimate, as: 
+- the mounting plate can be made to MUCH larger  tolerance than quoted 
+- steppers cheaper if bought in a larger group
+- likely can find cheaper source for bearing shafts
+- most screws ordered in excessively large packs</t>
+    </r>
+  </si>
+  <si>
+    <t>10 x 15 mm segmented carrier</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
   </si>
 </sst>
 </file>
@@ -457,7 +490,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +526,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -515,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -526,6 +571,9 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -830,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -843,7 +891,7 @@
     <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="61" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -987,7 +1035,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1052,7 @@
         <v>12.91</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>F7*E7</f>
         <v>12.91</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1376,125 +1424,144 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7.29</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7.29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2">
-        <v>7.29</v>
+        <v>7.28</v>
       </c>
       <c r="G27" s="2">
-        <v>7.29</v>
+        <v>7.28</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E28" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2">
-        <v>7.28</v>
+        <v>10.14</v>
       </c>
       <c r="G28" s="2">
-        <v>7.28</v>
+        <v>10.14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E29" s="1">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F29" s="2">
-        <v>10.14</v>
+        <v>5.37</v>
       </c>
       <c r="G29" s="2">
-        <v>10.14</v>
+        <v>5.37</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2">
-        <v>5.37</v>
+        <v>7.2</v>
       </c>
       <c r="G30" s="2">
-        <v>5.37</v>
+        <v>7.2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E31" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2">
-        <v>7.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G31" s="2">
-        <v>7.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1505,42 +1572,42 @@
         <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E32" s="1">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2">
-        <v>4.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="G32" s="2">
-        <v>4.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2">
-        <v>6.4</v>
+        <v>3.64</v>
       </c>
       <c r="G33" s="2">
-        <v>6.4</v>
+        <v>3.64</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1551,19 +1618,19 @@
         <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2">
-        <v>3.64</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2">
-        <v>3.64</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1574,62 +1641,63 @@
         <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F35" s="2">
-        <v>6</v>
+        <v>6.72</v>
       </c>
       <c r="G35" s="2">
-        <v>6</v>
+        <v>6.72</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="2">
-        <v>6.72</v>
+        <v>1.06</v>
       </c>
       <c r="G36" s="2">
-        <v>6.72</v>
+        <v>1.06</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <f>8+2+2+9</f>
+        <v>21</v>
       </c>
       <c r="F37" s="2">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="G37" s="2">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>138</v>
@@ -1637,23 +1705,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="1">
-        <f>8+2+2+9</f>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F38" s="2">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="G38" s="2">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>138</v>
@@ -1661,22 +1728,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E39" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="G39" s="2">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>138</v>
@@ -1684,22 +1751,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2">
-        <v>2.06</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G40" s="2">
-        <v>2.06</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>138</v>
@@ -1707,129 +1774,130 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E41" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F41" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="G41" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" s="2">
-        <v>2.61</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2.61</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="1">
+        <v>13207</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10.95</v>
+      </c>
+      <c r="G43" s="2">
+        <f>F43*E43</f>
+        <v>10.95</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="1">
-        <v>20</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="G44" s="2">
-        <f>F44*E44</f>
-        <v>13</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E45" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F45" s="2">
-        <v>0.21</v>
+        <v>0.65</v>
       </c>
       <c r="G45" s="2">
         <f>F45*E45</f>
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="1">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G46" s="2">
+        <f>F46*E46</f>
+        <v>5.25</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F47" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="1" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F48" s="2"/>
@@ -1999,7 +2067,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
@@ -2029,13 +2097,16 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="F59" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G59" s="2">
         <f>SUM(G1:G57)</f>
-        <v>808.52</v>
+        <v>819.46999999999991</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
